--- a/Doc/Robot IO.xlsx
+++ b/Doc/Robot IO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t xml:space="preserve">Robot I/O</t>
   </si>
@@ -61,13 +61,37 @@
     <t xml:space="preserve">left motor 1</t>
   </si>
   <si>
+    <t xml:space="preserve">arm claw</t>
+  </si>
+  <si>
     <t xml:space="preserve">left motor 2</t>
   </si>
   <si>
+    <t xml:space="preserve">left intake</t>
+  </si>
+  <si>
     <t xml:space="preserve">right motor 1</t>
   </si>
   <si>
+    <t xml:space="preserve">right intake</t>
+  </si>
+  <si>
     <t xml:space="preserve">right motor 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shifter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rotates arm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extends arm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intake left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intake right</t>
   </si>
 </sst>
 </file>
@@ -318,8 +342,8 @@
   </sheetPr>
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O8" activeCellId="0" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -474,7 +498,9 @@
       <c r="N5" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="O5" s="8"/>
+      <c r="O5" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="P5" s="9"/>
       <c r="Q5" s="2"/>
     </row>
@@ -483,7 +509,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
@@ -505,7 +531,9 @@
       <c r="N6" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="O6" s="8"/>
+      <c r="O6" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="P6" s="9"/>
       <c r="Q6" s="2"/>
     </row>
@@ -514,7 +542,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
@@ -536,7 +564,9 @@
       <c r="N7" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="O7" s="8"/>
+      <c r="O7" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="P7" s="9"/>
       <c r="Q7" s="2"/>
     </row>
@@ -545,7 +575,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
@@ -567,7 +597,9 @@
       <c r="N8" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="O8" s="8"/>
+      <c r="O8" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="P8" s="9"/>
       <c r="Q8" s="2"/>
     </row>
@@ -575,7 +607,9 @@
       <c r="A9" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
       <c r="E9" s="7" t="n">
@@ -602,7 +636,9 @@
       <c r="A10" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
       <c r="E10" s="7" t="n">
@@ -629,7 +665,9 @@
       <c r="A11" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
       <c r="E11" s="7" t="n">
@@ -656,7 +694,9 @@
       <c r="A12" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
       <c r="E12" s="7" t="n">

--- a/Doc/Robot IO.xlsx
+++ b/Doc/Robot IO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t xml:space="preserve">Robot I/O</t>
   </si>
@@ -61,16 +61,31 @@
     <t xml:space="preserve">left motor 1</t>
   </si>
   <si>
+    <t xml:space="preserve">Primary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limit Switch 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">arm claw</t>
   </si>
   <si>
     <t xml:space="preserve">left motor 2</t>
   </si>
   <si>
+    <t xml:space="preserve">Secondary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limit Switch 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">left intake</t>
   </si>
   <si>
     <t xml:space="preserve">right motor 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beam Break</t>
   </si>
   <si>
     <t xml:space="preserve">right intake</t>
@@ -342,8 +357,8 @@
   </sheetPr>
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O8" activeCellId="0" sqref="O8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -471,7 +486,7 @@
       </c>
       <c r="Q4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="n">
         <v>1</v>
       </c>
@@ -479,11 +494,15 @@
         <v>12</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="E5" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="G5" s="9"/>
       <c r="H5" s="7" t="n">
         <v>0</v>
@@ -499,24 +518,28 @@
         <v>0</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P5" s="9"/>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="n">
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="E6" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="G6" s="9"/>
       <c r="H6" s="7" t="n">
         <v>1</v>
@@ -532,24 +555,28 @@
         <v>1</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="P6" s="9"/>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="n">
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="E7" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="G7" s="9"/>
       <c r="H7" s="7" t="n">
         <v>2</v>
@@ -565,20 +592,22 @@
         <v>2</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="P7" s="9"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="n">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="E8" s="7" t="n">
         <v>3</v>
       </c>
@@ -598,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P8" s="9"/>
       <c r="Q8" s="2"/>
@@ -608,7 +637,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
@@ -637,7 +666,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
@@ -666,7 +695,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
@@ -695,7 +724,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>

--- a/Doc/Robot IO.xlsx
+++ b/Doc/Robot IO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t xml:space="preserve">Robot I/O</t>
   </si>
@@ -97,7 +97,7 @@
     <t xml:space="preserve">shifter</t>
   </si>
   <si>
-    <t xml:space="preserve">rotates arm</t>
+    <t xml:space="preserve">pivot arm</t>
   </si>
   <si>
     <t xml:space="preserve">extends arm</t>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t xml:space="preserve">intake right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pivot arm 2</t>
   </si>
 </sst>
 </file>
@@ -358,7 +361,7 @@
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -752,7 +755,9 @@
       <c r="A13" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="C13" s="8"/>
       <c r="D13" s="9"/>
       <c r="E13" s="7" t="n">

--- a/Doc/Robot IO.xlsx
+++ b/Doc/Robot IO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t xml:space="preserve">Robot I/O</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t xml:space="preserve">pivot arm 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">climber</t>
   </si>
 </sst>
 </file>
@@ -361,7 +364,7 @@
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -784,7 +787,9 @@
       <c r="A14" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
       <c r="E14" s="7" t="n">

--- a/Doc/Robot IO.xlsx
+++ b/Doc/Robot IO.xlsx
@@ -79,7 +79,7 @@
     <t xml:space="preserve">Limit Switch 2</t>
   </si>
   <si>
-    <t xml:space="preserve">left intake</t>
+    <t xml:space="preserve">extend intake</t>
   </si>
   <si>
     <t xml:space="preserve">right motor 1</t>
@@ -88,7 +88,7 @@
     <t xml:space="preserve">Beam Break</t>
   </si>
   <si>
-    <t xml:space="preserve">right intake</t>
+    <t xml:space="preserve">open intake</t>
   </si>
   <si>
     <t xml:space="preserve">right motor 2</t>
@@ -363,8 +363,8 @@
   </sheetPr>
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O10" activeCellId="0" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Doc/Robot IO.xlsx
+++ b/Doc/Robot IO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t xml:space="preserve">Robot I/O</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t xml:space="preserve">climber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">camera pole</t>
   </si>
 </sst>
 </file>
@@ -363,8 +366,8 @@
   </sheetPr>
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O10" activeCellId="0" sqref="O10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -816,7 +819,9 @@
       <c r="A15" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
       <c r="E15" s="7"/>
